--- a/source/_posts/bi/简单部署规划.xlsx
+++ b/source/_posts/bi/简单部署规划.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -31,6 +37,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>子</t>
     </r>
     <r>
@@ -81,6 +93,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Zookeeper</t>
     </r>
     <r>
@@ -104,6 +122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>F</t>
     </r>
     <r>
@@ -154,6 +178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>F</t>
     </r>
     <r>
@@ -171,6 +201,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Flume</t>
     </r>
     <r>
@@ -227,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>My</t>
     </r>
     <r>
@@ -241,6 +283,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>M</t>
     </r>
     <r>
@@ -270,6 +318,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>C</t>
     </r>
     <r>
@@ -296,54 +350,6 @@
   </si>
   <si>
     <t>Druid</t>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ylin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>base</t>
-    </r>
-  </si>
-  <si>
-    <t>HMaster</t>
-  </si>
-  <si>
-    <t>HRegionServer</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uperset</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -352,8 +358,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -378,7 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,9 +398,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,31 +511,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,83 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -530,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,17 +795,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,15 +815,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,8 +837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +853,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,7 +876,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -882,7 +888,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,124 +897,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="28.35" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1619,63 +1625,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="15.9" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="15.15" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
